--- a/data/trans_dic/P17A-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P17A-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2389305190334072</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2387338182029811</v>
+        <v>0.2387338182029812</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2445304872957588</v>
@@ -685,7 +685,7 @@
         <v>0.2761707762181473</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2464742676118645</v>
+        <v>0.2464742676118644</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.197657431402159</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1338115839535295</v>
+        <v>0.1334211810558958</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1393900891127423</v>
+        <v>0.1418562905606759</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1985568274944875</v>
+        <v>0.1962645164976894</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2024772008511145</v>
+        <v>0.2021939253574192</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.195447241733365</v>
+        <v>0.1962788555264018</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.210978468274812</v>
+        <v>0.2075394275079396</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2230580213720864</v>
+        <v>0.2325207459091456</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2151609237624717</v>
+        <v>0.2164245499532272</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1702830132993959</v>
+        <v>0.1707397496972698</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.179723871455353</v>
+        <v>0.1823310161845457</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.225341131260365</v>
+        <v>0.2224697862107483</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2179054561799492</v>
+        <v>0.2189277192057653</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2062926790575471</v>
+        <v>0.2059197683953179</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2161579583437484</v>
+        <v>0.2237923825246887</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2849448396177487</v>
+        <v>0.2826812989889056</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2821804274920737</v>
+        <v>0.2784580505938213</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2965832069841128</v>
+        <v>0.2974337809518626</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3155617484180141</v>
+        <v>0.3153646419119743</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.327392681591814</v>
+        <v>0.3321913403458033</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2834358793866749</v>
+        <v>0.2786762959254178</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2259739513865687</v>
+        <v>0.2261512268713999</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2428732493715844</v>
+        <v>0.2454535305025272</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2878709277591283</v>
+        <v>0.2871357608054348</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2685698239135167</v>
+        <v>0.2678950145479774</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1311057272832684</v>
+        <v>0.1340862460646692</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1893596771279464</v>
+        <v>0.1865004721677431</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2037681242570056</v>
+        <v>0.2066111607432109</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1682758662055722</v>
+        <v>0.1666687902158766</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2272673972891689</v>
+        <v>0.2225273993964743</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2379060958565058</v>
+        <v>0.2355019394990047</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.208175634573829</v>
+        <v>0.2106205920059868</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2015191196323523</v>
+        <v>0.2016124188722734</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1852256414913351</v>
+        <v>0.1902764470409872</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2257503557827344</v>
+        <v>0.2253500212544067</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2228876213732112</v>
+        <v>0.2227147214469967</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1936545321649276</v>
+        <v>0.1929744236047375</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2140378360769933</v>
+        <v>0.2182538141073352</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2814194339861202</v>
+        <v>0.2768651738107983</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2950482252732766</v>
+        <v>0.295223655878614</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2423763258687963</v>
+        <v>0.2415610826751112</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3113840975968903</v>
+        <v>0.3137204029412334</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3348907803227477</v>
+        <v>0.3373615798874097</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3034263521193809</v>
+        <v>0.3078394512598329</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2731380417422045</v>
+        <v>0.2717693861661712</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2474096307304702</v>
+        <v>0.2482944138193803</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2935676185174289</v>
+        <v>0.29201673408312</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2896079941602148</v>
+        <v>0.28692479254271</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2442061476135954</v>
+        <v>0.2435150841647453</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1816595948838239</v>
+        <v>0.1837331064599568</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2154447759400965</v>
+        <v>0.21567282109793</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2555997911490892</v>
+        <v>0.2590272265310204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1683425642249251</v>
+        <v>0.1694059169255177</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2835204176725133</v>
+        <v>0.2809110222553822</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3012673835017031</v>
+        <v>0.3037253505743156</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3062734800592278</v>
+        <v>0.2972504610629876</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2290571217601571</v>
+        <v>0.2315543401650343</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2178565740562411</v>
+        <v>0.2173964937975834</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2486354417849893</v>
+        <v>0.2518944073324924</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.284507827358832</v>
+        <v>0.2814300421298868</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1981382779211999</v>
+        <v>0.1992461182120272</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2531297640824183</v>
+        <v>0.2526162117032554</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2847533691739802</v>
+        <v>0.2879889831395064</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3376993128817041</v>
+        <v>0.3376990893424814</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2463635905962984</v>
+        <v>0.2434970005514941</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4262151591329285</v>
+        <v>0.434407590267375</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4168733056078823</v>
+        <v>0.4233592959215781</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4579197331003235</v>
+        <v>0.4589944755691664</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3446606143943276</v>
+        <v>0.3443233728097038</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2824498841256526</v>
+        <v>0.2843265593638998</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3142260530095443</v>
+        <v>0.3160961236497725</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.358420877140165</v>
+        <v>0.3516987418288692</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2637701606718935</v>
+        <v>0.2622726260802113</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.3260826752809665</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2517472776044863</v>
+        <v>0.2517472776044864</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2625976239932822</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2092256557959606</v>
+        <v>0.2097148528836816</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2334481108331943</v>
+        <v>0.2332272365518402</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2307671295160408</v>
+        <v>0.227827392954966</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1814797878629239</v>
+        <v>0.180211166548697</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2775139651039023</v>
+        <v>0.2806136211859737</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2914497507981345</v>
+        <v>0.2915334768196132</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2974714101093325</v>
+        <v>0.2965270432874328</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2253576154445526</v>
+        <v>0.2277139372035157</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2434545201090982</v>
+        <v>0.2433589355930502</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2660847528165152</v>
+        <v>0.2648670767696284</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2656351265919788</v>
+        <v>0.2631973810604495</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2071629102498435</v>
+        <v>0.2075767663782895</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.26000561163342</v>
+        <v>0.257853858181138</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2873118126880573</v>
+        <v>0.2875509527247825</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2824622992384804</v>
+        <v>0.2833248466509581</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.230864219957556</v>
+        <v>0.2302495685504277</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3495381335379916</v>
+        <v>0.3509878432773098</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3617509463425092</v>
+        <v>0.3624762612180909</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3618163901200465</v>
+        <v>0.361134531263228</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2797937267391327</v>
+        <v>0.2778074228067932</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2820482583749393</v>
+        <v>0.2858141279558815</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3098811820027269</v>
+        <v>0.3082134694047249</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3046974699762358</v>
+        <v>0.3043850970910702</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2430233226275775</v>
+        <v>0.2439379508097504</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1912972977627413</v>
+        <v>0.1973008385814801</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1769876703920314</v>
+        <v>0.1802719205539771</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.233856294795418</v>
+        <v>0.2322609352327459</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1378417330461278</v>
+        <v>0.1354748867473237</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3110825178643586</v>
+        <v>0.310517605711648</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3293418810215913</v>
+        <v>0.3313105768684304</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3289183461746027</v>
+        <v>0.324798859729802</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2375075089369992</v>
+        <v>0.2374693552820262</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2755940462667301</v>
+        <v>0.2799792035521675</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2793828822379891</v>
+        <v>0.2791740895097775</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2933347859388903</v>
+        <v>0.2944741879676283</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2057667672129934</v>
+        <v>0.2045382467996714</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2828521384809422</v>
+        <v>0.2893618251233381</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2480746788302255</v>
+        <v>0.2524376837533081</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3074252922060894</v>
+        <v>0.3064753775305447</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2022418007392442</v>
+        <v>0.2027194639608716</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3903678872535509</v>
+        <v>0.3888433910127298</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3996151073804541</v>
+        <v>0.4001074974140421</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4011831371200104</v>
+        <v>0.3991641217381412</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2895952423020873</v>
+        <v>0.2889990055762903</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3386793735321233</v>
+        <v>0.3424735627614716</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3317432268288125</v>
+        <v>0.3340211184062196</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3465740436710942</v>
+        <v>0.3464765045325072</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2459031800169837</v>
+        <v>0.2439542505855584</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.1555900634202907</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.09027715342096103</v>
+        <v>0.09027715342096101</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.3154551577819413</v>
@@ -1365,7 +1365,7 @@
         <v>0.339855051254499</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2311974537248468</v>
+        <v>0.2311974537248467</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2709953817206638</v>
@@ -1377,7 +1377,7 @@
         <v>0.3012106191427758</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2002240056828295</v>
+        <v>0.2002240056828294</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05547053318593747</v>
+        <v>0.05614289430302461</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1021102122941951</v>
+        <v>0.1059607427277539</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1179180330118322</v>
+        <v>0.1160482673447325</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04768311113488044</v>
+        <v>0.04663773793097199</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2907862412909201</v>
+        <v>0.2870295233750029</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.294368676942124</v>
+        <v>0.293223940699737</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3088880652602674</v>
+        <v>0.3128596845174383</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2016766082022701</v>
+        <v>0.2052099712538124</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2493613192902108</v>
+        <v>0.2506758020523519</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2623361429334322</v>
+        <v>0.2633813776238864</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2765232524169609</v>
+        <v>0.2741488369638714</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1749635107925517</v>
+        <v>0.1767695657129563</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1201628542630016</v>
+        <v>0.1197073027195111</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1904437730496945</v>
+        <v>0.1933662855629653</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2012535231750178</v>
+        <v>0.1997798245348129</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.158132508505412</v>
+        <v>0.1677013948097978</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3417512947594345</v>
+        <v>0.3394447947227139</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3511764626036602</v>
+        <v>0.3481447426150374</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3699263209094479</v>
+        <v>0.3718577618500305</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2577204027297772</v>
+        <v>0.2582648932097915</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2957252510040324</v>
+        <v>0.2932875313742075</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3138139343898227</v>
+        <v>0.3126810104511266</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3298962323164691</v>
+        <v>0.3263982562976961</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2286953267373038</v>
+        <v>0.2255249583313708</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.2914255827640285</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.223109408082242</v>
+        <v>0.2231094080822421</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1877758528452715</v>
+        <v>0.187582158121677</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2135124054534897</v>
+        <v>0.212959079935204</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2367062144385241</v>
+        <v>0.2385148482233416</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1822699936170213</v>
+        <v>0.181621083823317</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2950221659781386</v>
+        <v>0.2939539311889714</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3098740416544014</v>
+        <v>0.3100713522310645</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3118258960025672</v>
+        <v>0.3116211293809703</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2357627480252539</v>
+        <v>0.234992873003511</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2452471689476056</v>
+        <v>0.2459093110725672</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2663428436487342</v>
+        <v>0.267088869338948</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2801711619459807</v>
+        <v>0.280543772190417</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2134359647788706</v>
+        <v>0.213512150879259</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2159457828517728</v>
+        <v>0.2157176733362851</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2420658151070314</v>
+        <v>0.2443881226221833</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2676137826191755</v>
+        <v>0.2686820417617007</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2095482297396895</v>
+        <v>0.2110299179994787</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3264240546004148</v>
+        <v>0.3267983949585389</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3428997202494561</v>
+        <v>0.3422186619577381</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.345776372967476</v>
+        <v>0.3454345641356432</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2615181983865887</v>
+        <v>0.2601593751225862</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2676451688793478</v>
+        <v>0.2680710390022473</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2885512526391408</v>
+        <v>0.289833412745557</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3018414867684181</v>
+        <v>0.3032935209308336</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2322456602532949</v>
+        <v>0.233465039079344</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>63397</v>
+        <v>63212</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>60818</v>
+        <v>61894</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>85199</v>
+        <v>84216</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>111488</v>
+        <v>111332</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>59940</v>
+        <v>60195</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>65582</v>
+        <v>64513</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>77413</v>
+        <v>80697</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>105087</v>
+        <v>105704</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>132899</v>
+        <v>133255</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>134283</v>
+        <v>136231</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>174898</v>
+        <v>172669</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>226410</v>
+        <v>227472</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>97737</v>
+        <v>97560</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>94313</v>
+        <v>97644</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>122268</v>
+        <v>121296</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>155374</v>
+        <v>153324</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>90956</v>
+        <v>91217</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>98092</v>
+        <v>98031</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>113623</v>
+        <v>115289</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>138433</v>
+        <v>136109</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>176363</v>
+        <v>176501</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>181466</v>
+        <v>183394</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>223430</v>
+        <v>222860</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>279052</v>
+        <v>278351</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>48107</v>
+        <v>49201</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>78927</v>
+        <v>77735</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>76867</v>
+        <v>77939</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>81313</v>
+        <v>80536</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>84513</v>
+        <v>82750</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>80200</v>
+        <v>79389</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>77498</v>
+        <v>78408</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>85271</v>
+        <v>85311</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>136845</v>
+        <v>140576</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>170197</v>
+        <v>169895</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>167054</v>
+        <v>166925</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>175520</v>
+        <v>174903</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>78538</v>
+        <v>80085</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>117298</v>
+        <v>115400</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>111300</v>
+        <v>111366</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>117119</v>
+        <v>116725</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>115793</v>
+        <v>116662</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>112894</v>
+        <v>113727</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>112957</v>
+        <v>114600</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>115576</v>
+        <v>114997</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>182786</v>
+        <v>183440</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>221325</v>
+        <v>220156</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>217061</v>
+        <v>215050</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>221337</v>
+        <v>220711</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>98530</v>
+        <v>99655</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>135181</v>
+        <v>135325</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>133401</v>
+        <v>135190</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>79392</v>
+        <v>79894</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>47570</v>
+        <v>47132</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>78066</v>
+        <v>78703</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>50879</v>
+        <v>49380</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>42849</v>
+        <v>43316</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>154715</v>
+        <v>154389</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>220435</v>
+        <v>223324</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>195752</v>
+        <v>193634</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>130509</v>
+        <v>131239</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>137295</v>
+        <v>137016</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>178669</v>
+        <v>180700</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>176250</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>116188</v>
+        <v>114836</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>71511</v>
+        <v>72886</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>108022</v>
+        <v>109703</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>76071</v>
+        <v>76250</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>64474</v>
+        <v>64411</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>200588</v>
+        <v>201920</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>278586</v>
+        <v>280244</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>246606</v>
+        <v>241981</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>173739</v>
+        <v>172753</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>258711</v>
+        <v>259316</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>269136</v>
+        <v>268881</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>265299</v>
+        <v>261919</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>205285</v>
+        <v>203850</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>197666</v>
+        <v>199874</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>223179</v>
+        <v>223243</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>245674</v>
+        <v>244895</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>193839</v>
+        <v>195866</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>474441</v>
+        <v>474255</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>510517</v>
+        <v>508181</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>524766</v>
+        <v>519950</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>412527</v>
+        <v>413351</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>321501</v>
+        <v>318840</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>331234</v>
+        <v>331509</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>324729</v>
+        <v>325721</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>261148</v>
+        <v>260453</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>248967</v>
+        <v>249999</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>277012</v>
+        <v>277567</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>298815</v>
+        <v>298252</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>240662</v>
+        <v>238954</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>549653</v>
+        <v>556991</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>594546</v>
+        <v>591346</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>601934</v>
+        <v>601317</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>483936</v>
+        <v>485758</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>67060</v>
+        <v>69165</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>90190</v>
+        <v>91864</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>145156</v>
+        <v>144166</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>78164</v>
+        <v>76822</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>176929</v>
+        <v>176608</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>250482</v>
+        <v>251979</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>242822</v>
+        <v>239781</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>197218</v>
+        <v>197186</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>253356</v>
+        <v>257387</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>354855</v>
+        <v>354590</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>398627</v>
+        <v>400176</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>287543</v>
+        <v>285826</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>99155</v>
+        <v>101437</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>126415</v>
+        <v>128639</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>190821</v>
+        <v>190231</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>114683</v>
+        <v>114954</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>222023</v>
+        <v>221155</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>303928</v>
+        <v>304303</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>296171</v>
+        <v>294681</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>240470</v>
+        <v>239975</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>311350</v>
+        <v>314838</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>421360</v>
+        <v>424253</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>470977</v>
+        <v>470844</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>343631</v>
+        <v>340907</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>16494</v>
+        <v>16694</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>27055</v>
+        <v>28075</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>33860</v>
+        <v>33323</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>11312</v>
+        <v>11064</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>363122</v>
+        <v>358431</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>325474</v>
+        <v>324208</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>334225</v>
+        <v>338522</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>169830</v>
+        <v>172805</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>385540</v>
+        <v>387572</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>359565</v>
+        <v>360998</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>378607</v>
+        <v>375356</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>188841</v>
+        <v>190791</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>35730</v>
+        <v>35595</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>50460</v>
+        <v>51234</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>57789</v>
+        <v>57366</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>37513</v>
+        <v>39783</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>426765</v>
+        <v>423885</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>388285</v>
+        <v>384933</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>400270</v>
+        <v>402359</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>217024</v>
+        <v>217482</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>457224</v>
+        <v>453455</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>430122</v>
+        <v>428569</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>451684</v>
+        <v>446895</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>246835</v>
+        <v>243413</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>613562</v>
+        <v>612929</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>727649</v>
+        <v>725763</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>801421</v>
+        <v>807545</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>627173</v>
+        <v>624940</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>996028</v>
+        <v>992421</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1096661</v>
+        <v>1097359</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1101243</v>
+        <v>1100520</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>856105</v>
+        <v>853310</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1629332</v>
+        <v>1633731</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1850297</v>
+        <v>1855479</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1938033</v>
+        <v>1940610</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1509444</v>
+        <v>1509983</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>705607</v>
+        <v>704862</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>824959</v>
+        <v>832873</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>906066</v>
+        <v>909683</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>721035</v>
+        <v>726133</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1102044</v>
+        <v>1103308</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1213541</v>
+        <v>1211130</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1221142</v>
+        <v>1219935</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>949629</v>
+        <v>944695</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1778136</v>
+        <v>1780966</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>2004579</v>
+        <v>2013487</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>2087934</v>
+        <v>2097978</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1642468</v>
+        <v>1651092</v>
       </c>
     </row>
     <row r="32">
